--- a/random_method/solutions/solution_80_heterogeneous_evolutionary.xlsx
+++ b/random_method/solutions/solution_80_heterogeneous_evolutionary.xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>598.0635474105306</v>
+        <v>601.1304735647099</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S073</t>
+          <t>S067</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S044</t>
+          <t>S065</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S073</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S077</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S041</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S075</t>
+          <t>S074</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S070</t>
+          <t>S078</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S068</t>
+          <t>S070</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S067</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S078</t>
+          <t>S075</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S005</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S048</t>
+          <t>S049</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S079</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S068</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S065</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S079</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S076</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S042</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S041</t>
+          <t>S044</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S072</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S072</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S074</t>
+          <t>S001</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S077</t>
+          <t>S076</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S043</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S052</t>
+          <t>S047</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S049</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S054</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S048</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S042</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S055</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S052</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S051</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S061</t>
+          <t>S058</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S061</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S063</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S062</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S059</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S062</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S059</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S063</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S024</t>
+          <t>S060</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S060</t>
+          <t>S024</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>598.0635474105306</v>
+        <v>601.0939290734133</v>
       </c>
     </row>
     <row r="3">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>541.125364904314</v>
+        <v>518.4691317980323</v>
       </c>
     </row>
     <row r="4">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>597.3795545464375</v>
+        <v>601.1304735647099</v>
       </c>
     </row>
     <row r="5">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>548.3209806465566</v>
+        <v>554.3820953616606</v>
       </c>
     </row>
   </sheetData>
